--- a/classfiers/bloated/elm/bloated_elm_tanh_results.xlsx
+++ b/classfiers/bloated/elm/bloated_elm_tanh_results.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9570815450643777</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7004484304932735</v>
+        <v>0.7338308457711442</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9527896995708155</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5941704035874439</v>
+        <v>0.6665024630541873</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9313304721030042</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8096198156682027</v>
+        <v>0.4783333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9267241379310345</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6627906976744187</v>
+        <v>0.7658730158730159</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6085972850678734</v>
+        <v>0.8534599728629579</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9432403433476395</v>
+        <v>0.9434936664009212</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6751253264982424</v>
+        <v>0.6995999261789277</v>
       </c>
     </row>
   </sheetData>
